--- a/similarities/split_global/harmonic_similarity_timestamps_95.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_95.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,138 +484,156 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_207</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'F']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:10.634761', '0:00:19.597664')]</t>
+          <t>('0:01:14.700000', '0:01:34.120000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:51.920000', '0:01:55.660000')]</t>
+          <t>('0:00:31.260000', '0:00:45.880000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=74.7</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=31.26</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:09.840000', '0:01:26.060000')]</t>
+          <t>('0:00:03.101913', '0:00:07.754783')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:02.640000', '0:00:19.060000')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=69.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=2.64']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['B:min/F#', 'F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
+          <t>('0:00:47.300000', '0:00:50.040000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
+          <t>('0:00:01.980000', '0:00:08.680000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=1.98</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -625,561 +643,587 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:10.240000', '0:00:22.400000')]</t>
+          <t>('0:00:44.160000', '0:00:48.160000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:25.620000', '0:00:33.760000')]</t>
+          <t>('0:00:11.700000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=10.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=25.62']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:07.600000', '0:00:17.160000')]</t>
+          <t>('0:00:25.480000', '0:00:56.440000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:03:46.620000', '0:03:52.800000')]</t>
+          <t>('0:00:11.740000', '0:00:19.740000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=7.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=25.48</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=11.74</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['Db:maj', 'Ab/3', 'Eb:7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:01:04.520000', '0:01:06.340000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:46.932280', '0:00:54.037586')]</t>
+          <t>('0:00:13.159000', '0:00:16.555000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=64.52</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=13.159</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:maj', 'C#:maj'], ['C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:09.060000', '0:00:10.780000'), ('0:00:00.480000', '0:00:08.480000')]</t>
+          <t>('0:01:49.520000', '0:01:54.200000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:17.940000'), ('0:00:59.500000', '0:01:08.120000')]</t>
+          <t>('0:00:40.820000', '0:00:43.620000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=9.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:min', 'G', 'C']]</t>
+          <t>['E', 'A', 'E', 'B']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min', 'C', 'F']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:30.971000', '0:01:36.810000')]</t>
+          <t>('0:00:15.216000', '0:00:34.866000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:44.859274', '0:00:49.758684')]</t>
+          <t>('0:00:54.180000', '0:01:05.360000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=90.971']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-244#t=44.859274']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A', 'A:7', 'D']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:18.651995', '0:00:24.735623')]</t>
+          <t>('0:00:44.160000', '0:00:48.160000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:19.060000', '0:00:30.080000')]</t>
+          <t>('0:01:23.200000', '0:01:31.140000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=18.651995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=19.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:11.210000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:55.629773', '0:01:07.541609')]</t>
+          <t>('0:01:12.640000', '0:01:23.380000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:00:13.420000', '0:00:19.500000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:02.360000', '0:00:11.660000')]</t>
+          <t>('0:00:01.560000', '0:00:06.900000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=2.36']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>isophonics_225</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['E/3', 'A:min', 'F']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C', 'F:min', 'C#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:36.940000', '0:01:43.280000'), ('0:00:39.840000', '0:00:47.280000')]</t>
+          <t>('0:00:12.579000', '0:00:17.703000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:37.120000', '0:01:44.100000'), ('0:02:11.200000', '0:02:16.340000')]</t>
+          <t>('0:00:12.080000', '0:00:24.980000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=96.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=12.579</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=97.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=12.08</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G/5', 'C/9', 'G']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['Eb', 'Ab', 'Eb']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:06.300000', '0:00:14.360000'), ('0:00:17.040000', '0:00:24.520000')]</t>
+          <t>('0:00:00.727609', '0:00:08.204625')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:15.060000', '0:00:23.160000'), ('0:00:26.960000', '0:00:33.500000')]</t>
+          <t>('0:02:16.070000', '0:02:21.510000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=6.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_62</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_16</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:7', 'A']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:51.080000', '0:00:57.700000')]</t>
+          <t>('0:00:40.120000', '0:00:47.880000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:42.960000', '0:00:45.780000')]</t>
+          <t>('0:00:43.180000', '0:00:45.100000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=51.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=42.96']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>isophonics_99</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['G', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['G#', 'C#:min', 'F#:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:42.140000', '0:00:44.360000')]</t>
+          <t>('0:01:23.738000', '0:01:26.618000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:17.860000', '0:00:28.300000')]</t>
+          <t>('0:00:02.804376', '0:00:06.298979')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=83.738</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=17.86']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-99#t=2.804376</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
